--- a/COLLECTED DATA/Thermistor Data.xlsx
+++ b/COLLECTED DATA/Thermistor Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morroway\Documents\.A\Projects\3D-PRINTER\COLLECTED DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC413A31-1F37-45B3-A855-5F75C7296CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A45D85-BA9C-4FE0-86D4-3D4D70C581F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{759ECCC0-DE5A-4357-9E7D-57BD42931C1A}"/>
+    <workbookView xWindow="28680" yWindow="375" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{759ECCC0-DE5A-4357-9E7D-57BD42931C1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HotBed" sheetId="1" r:id="rId1"/>
+    <sheet name="hotend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Resistance</t>
   </si>
@@ -185,7 +186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>HotBed!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -208,7 +209,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$30</c:f>
+              <c:f>HotBed!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -304,7 +305,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$30</c:f>
+              <c:f>HotBed!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
@@ -402,6 +403,468 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A474-4DE4-8117-B686B94251D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="595511055"/>
+        <c:axId val="595513967"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="595511055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595513967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="595513967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595511055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>hotend!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Resistance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>hotend!$A$2:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>hotend!$B$2:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1724.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>940.88499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>708.42200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>539.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414.31599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250.886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156.40700000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124.69199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.394999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.253</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.516999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8360000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E0A-4AD0-8D85-2873CD4B3763}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,7 +1095,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1173,6 +2192,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>122382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>318655</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>94673</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77A9A71-D937-47C7-8533-EDEFF163DDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1488,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB338545-475F-4030-AD2E-FDC4938097DA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1862,4 +2924,355 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1B1EC-0E93-40C4-BA77-021297BD0124}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-30</v>
+      </c>
+      <c r="B2">
+        <v>1724.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-25</v>
+      </c>
+      <c r="B3">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-20</v>
+      </c>
+      <c r="B4">
+        <v>940.88499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-15</v>
+      </c>
+      <c r="B5">
+        <v>708.42200000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-10</v>
+      </c>
+      <c r="B6">
+        <v>539.17100000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-5</v>
+      </c>
+      <c r="B7">
+        <v>414.31599999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>320.14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>250.886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>198.53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>156.40700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>124.69199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>80.650000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>65.394999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>43.658999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>35.840000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>29.713000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>24.681000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>65</v>
+      </c>
+      <c r="B21">
+        <v>20.591999999999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>70</v>
+      </c>
+      <c r="B22">
+        <v>17.253</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>LN(B2*1000)</f>
+        <v>14.360610064082277</v>
+      </c>
+      <c r="E22">
+        <f>1/(A2+272.15)</f>
+        <v>4.1296716911005575E-3</v>
+      </c>
+      <c r="F22">
+        <f>(E23-E22)/(D23-D22)</f>
+        <v>2.6775316788488652E-4</v>
+      </c>
+      <c r="G22">
+        <f>E22-(G23+D22^2*G24)*D22</f>
+        <v>7.3155509593590684E-4</v>
+      </c>
+      <c r="H22">
+        <v>40000</v>
+      </c>
+      <c r="L22">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>75</v>
+      </c>
+      <c r="B23">
+        <v>14.516999999999999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>LN(B14*1000)</f>
+        <v>11.297874083553355</v>
+      </c>
+      <c r="E23">
+        <f>1/(A14+272.15)</f>
+        <v>3.3096144299189145E-3</v>
+      </c>
+      <c r="F23">
+        <f>(E24-E22)/(D24-D22)</f>
+        <v>2.5743716074838065E-4</v>
+      </c>
+      <c r="G23">
+        <f>F22-G24*(D22^2+D22*D23+D23^2)</f>
+        <v>2.1448464543221649E-4</v>
+      </c>
+      <c r="L23">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>80</v>
+      </c>
+      <c r="B24">
+        <v>12.265000000000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <f>LN(B30*1000)</f>
+        <v>8.4838432117346834</v>
+      </c>
+      <c r="E24">
+        <f>1/(A30+272.15)</f>
+        <v>2.6167735182519953E-3</v>
+      </c>
+      <c r="G24">
+        <f>((F23-F22)/(D24-D23))*(D22+D23+D24)^-1</f>
+        <v>1.0737165671392453E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>10.404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>90</v>
+      </c>
+      <c r="B26">
+        <v>8.859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="D27">
+        <f>1/(G22+G23*LN(H22)+G24*LN(H22)^3)-272.15</f>
+        <v>47.12153569583802</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>6.4980000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>5.5949999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>110</v>
+      </c>
+      <c r="B30">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/COLLECTED DATA/Thermistor Data.xlsx
+++ b/COLLECTED DATA/Thermistor Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morroway\Documents\.A\Projects\3D-PRINTER\COLLECTED DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29A45D85-BA9C-4FE0-86D4-3D4D70C581F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6381B0-50CB-4301-BCF5-B5A1FB11C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="375" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{759ECCC0-DE5A-4357-9E7D-57BD42931C1A}"/>
   </bookViews>
@@ -81,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,14 +2935,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1B1EC-0E93-40C4-BA77-021297BD0124}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -3149,14 +3156,18 @@
       </c>
       <c r="F22">
         <f>(E23-E22)/(D23-D22)</f>
-        <v>2.6775316788488652E-4</v>
+        <v>2.6841735657041861E-4</v>
       </c>
       <c r="G22">
         <f>E22-(G23+D22^2*G24)*D22</f>
-        <v>7.3155509593590684E-4</v>
+        <v>7.2636382072754002E-4</v>
       </c>
       <c r="H22">
-        <v>40000</v>
+        <f>(3.3/65536)*I22</f>
+        <v>2.5177001953125</v>
+      </c>
+      <c r="I22">
+        <v>50000</v>
       </c>
       <c r="L22">
         <v>3.3</v>
@@ -3173,12 +3184,12 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <f>LN(B14*1000)</f>
-        <v>11.297874083553355</v>
+        <f>LN(B13*1000)</f>
+        <v>11.512925464970229</v>
       </c>
       <c r="E23">
-        <f>1/(A14+272.15)</f>
-        <v>3.3096144299189145E-3</v>
+        <f>1/(A13+272.15)</f>
+        <v>3.3653037186606094E-3</v>
       </c>
       <c r="F23">
         <f>(E24-E22)/(D24-D22)</f>
@@ -3186,7 +3197,11 @@
       </c>
       <c r="G23">
         <f>F22-G24*(D22^2+D22*D23+D23^2)</f>
-        <v>2.1448464543221649E-4</v>
+        <v>2.1523079640187122E-4</v>
+      </c>
+      <c r="H23">
+        <f>H22/((3.3-H22)/H24)</f>
+        <v>32183.316168898051</v>
       </c>
       <c r="L23">
         <f>2^12</f>
@@ -3211,9 +3226,12 @@
         <f>1/(A30+272.15)</f>
         <v>2.6167735182519953E-3</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f>((F23-F22)/(D24-D23))*(D22+D23+D24)^-1</f>
-        <v>1.0737165671392453E-7</v>
+        <v>1.0550644660502131E-7</v>
+      </c>
+      <c r="H24">
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3239,9 +3257,9 @@
       <c r="B27">
         <v>7.5730000000000004</v>
       </c>
-      <c r="D27">
-        <f>1/(G22+G23*LN(H22)+G24*LN(H22)^3)-272.15</f>
-        <v>47.12153569583802</v>
+      <c r="D27" s="3">
+        <f>1/(G22+G23*LN(H23)+G24*LN(H23)^3)-272.15</f>
+        <v>52.709069265363382</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>

--- a/COLLECTED DATA/Thermistor Data.xlsx
+++ b/COLLECTED DATA/Thermistor Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morroway\Documents\.A\Projects\3D-PRINTER\COLLECTED DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6381B0-50CB-4301-BCF5-B5A1FB11C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546F7AC6-556A-46F3-A1BA-DCE900038FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="375" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{759ECCC0-DE5A-4357-9E7D-57BD42931C1A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{759ECCC0-DE5A-4357-9E7D-57BD42931C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="HotBed" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +117,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +810,7 @@
                   <c:v>124.69199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>80.650000000000006</c:v>
@@ -2935,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1B1EC-0E93-40C4-BA77-021297BD0124}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3054,7 +3054,7 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="F22">
         <f>(E23-E22)/(D23-D22)</f>
-        <v>2.6841735657041861E-4</v>
+        <v>2.1587243337235177E-4</v>
       </c>
       <c r="G22">
         <f>E22-(G23+D22^2*G24)*D22</f>
-        <v>7.2636382072754002E-4</v>
+        <v>-1.0383815015152969E-3</v>
       </c>
       <c r="H22">
         <f>(3.3/65536)*I22</f>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="D23">
         <f>LN(B13*1000)</f>
-        <v>11.512925464970229</v>
+        <v>10.819778284410283</v>
       </c>
       <c r="E23">
         <f>1/(A13+272.15)</f>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G23">
         <f>F22-G24*(D22^2+D22*D23+D23^2)</f>
-        <v>2.1523079640187122E-4</v>
+        <v>4.6888069561407868E-4</v>
       </c>
       <c r="H23">
         <f>H22/((3.3-H22)/H24)</f>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="G24" s="2">
         <f>((F23-F22)/(D24-D23))*(D22+D23+D24)^-1</f>
-        <v>1.0550644660502131E-7</v>
+        <v>-5.285614235363466E-7</v>
       </c>
       <c r="H24">
         <v>10000</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D27" s="3">
         <f>1/(G22+G23*LN(H23)+G24*LN(H23)^3)-272.15</f>
-        <v>52.709069265363382</v>
+        <v>36.756399315416104</v>
       </c>
       <c r="E27" t="s">
         <v>12</v>
